--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A75654B-B279-4742-BC4B-EC409FDECDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F87FA8-A2C5-454D-A2EA-F67EE907D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,36 +72,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JellyFishGirl</t>
-  </si>
-  <si>
-    <t>Portrait_JellyFishGirl</t>
-  </si>
-  <si>
     <t>EarthMage</t>
   </si>
   <si>
-    <t>Portrait_EarthMage</t>
-  </si>
-  <si>
-    <t>DynaMob</t>
-  </si>
-  <si>
-    <t>Portrait_DynaMob</t>
-  </si>
-  <si>
-    <t>SciFiWarrior</t>
-  </si>
-  <si>
-    <t>Portrait_SciFiWarrior</t>
-  </si>
-  <si>
-    <t>ChaosElemental</t>
-  </si>
-  <si>
-    <t>Portrait_ChaosElemental</t>
-  </si>
-  <si>
     <t>orderIndex|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,6 +105,68 @@
   <si>
     <t>Costu01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_A3</t>
+  </si>
+  <si>
+    <t>Costu06</t>
+  </si>
+  <si>
+    <t>Costu07</t>
+  </si>
+  <si>
+    <t>Costu08</t>
+  </si>
+  <si>
+    <t>Cash_sCostu05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cash_sCostu07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBatSuccubus</t>
+  </si>
+  <si>
+    <t>Bei</t>
+  </si>
+  <si>
+    <t>Meryl</t>
+  </si>
+  <si>
+    <t>Akai</t>
+  </si>
+  <si>
+    <t>Yuka</t>
+  </si>
+  <si>
+    <t>Kachujin</t>
+  </si>
+  <si>
+    <t>Medea</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_A1</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_C1</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_C2</t>
+  </si>
+  <si>
+    <t>Portrait_P06_Mei</t>
+  </si>
+  <si>
+    <t>Portrait_P06_Pai</t>
+  </si>
+  <si>
+    <t>Portrait_P08_Federica_DB_A</t>
+  </si>
+  <si>
+    <t>Portrait_P08_Federica_DB_B</t>
   </si>
 </sst>
 </file>
@@ -527,18 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="4" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="18.25" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
@@ -573,21 +609,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -601,28 +637,28 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.99</v>
+        <v>7.99</v>
       </c>
       <c r="G3">
-        <v>19000</v>
+        <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -630,16 +666,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -651,7 +687,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -659,28 +695,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="G5">
-        <v>69000</v>
+        <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -688,26 +724,105 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>14.99</v>
+      </c>
+      <c r="G6">
+        <v>19000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
       </c>
       <c r="J6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>815</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>39.99</v>
+      </c>
+      <c r="G8">
+        <v>49000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>998</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F87FA8-A2C5-454D-A2EA-F67EE907D691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14E18F-AD8B-408C-8AF5-8E3220196FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Costume" sheetId="1" r:id="rId1"/>
+    <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +33,144 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Hoohoo</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6C894758-65E8-46CF-BD20-8E3D28477318}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외부조건</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현질</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>골드는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>셋</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>하나만</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>켜진다</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
@@ -40,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>power|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition|Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,10 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>portraitAddress|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EarthMage</t>
   </si>
   <si>
@@ -79,18 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cash_sCostu02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_sCostu03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_sCostu04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Costu02</t>
   </si>
   <si>
@@ -119,14 +237,6 @@
     <t>Costu08</t>
   </si>
   <si>
-    <t>Cash_sCostu05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cash_sCostu07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BigBatSuccubus</t>
   </si>
   <si>
@@ -167,13 +277,39 @@
   </si>
   <si>
     <t>Portrait_P08_Federica_DB_B</t>
+  </si>
+  <si>
+    <t>atk|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spriteName|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_Costu02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_Costu03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_Costu04</t>
+  </si>
+  <si>
+    <t>Costume_Costu05</t>
+  </si>
+  <si>
+    <t>Costume_Costu07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +347,19 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -561,14 +710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -585,45 +734,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -637,16 +786,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -658,7 +807,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -666,16 +815,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -687,7 +836,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -695,16 +844,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>485</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -716,7 +865,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -724,16 +873,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>541</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -745,7 +894,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -753,16 +902,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>674</v>
       </c>
       <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -773,16 +922,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>815</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -794,7 +943,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -802,16 +951,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>998</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -824,5 +973,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E14E18F-AD8B-408C-8AF5-8E3220196FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CB00B-BBF6-4EF7-A008-583DF4750E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -39,6 +39,58 @@
     <author>Hoohoo</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F0341B9F-8D4C-466E-AF7F-1C609333B7AF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>서버아이템아이디와</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>같도록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한다</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{6C894758-65E8-46CF-BD20-8E3D28477318}">
       <text>
         <r>
@@ -172,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,34 +261,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Costu02</t>
-  </si>
-  <si>
-    <t>Costu03</t>
-  </si>
-  <si>
-    <t>Costu04</t>
-  </si>
-  <si>
-    <t>Costu05</t>
-  </si>
-  <si>
-    <t>Costu01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Portrait_P03_Tenebro_DB_A3</t>
   </si>
   <si>
-    <t>Costu06</t>
-  </si>
-  <si>
-    <t>Costu07</t>
-  </si>
-  <si>
-    <t>Costu08</t>
-  </si>
-  <si>
     <t>BigBatSuccubus</t>
   </si>
   <si>
@@ -303,6 +330,24 @@
   <si>
     <t>Costume_Costu07</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_Costu02</t>
+  </si>
+  <si>
+    <t>Costume_Costu01</t>
+  </si>
+  <si>
+    <t>Costume_Costu03</t>
+  </si>
+  <si>
+    <t>Costume_Costu06</t>
+  </si>
+  <si>
+    <t>Costume_Costu07</t>
+  </si>
+  <si>
+    <t>Costume_Costu08</t>
   </si>
 </sst>
 </file>
@@ -717,11 +762,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
@@ -734,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -763,16 +809,16 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -786,16 +832,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -807,7 +853,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -815,7 +861,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>358</v>
@@ -824,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -836,7 +882,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -844,16 +890,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>485</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -865,7 +911,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -873,16 +919,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -894,7 +940,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -902,16 +948,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>674</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -922,16 +968,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>815</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -943,7 +989,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -951,16 +997,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>998</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836CB00B-BBF6-4EF7-A008-583DF4750E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB83F45-77B5-4CA7-B869-A6934CCBBDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,40 +314,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Costume_Costu02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costume_Costu03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costume_Costu04</t>
-  </si>
-  <si>
-    <t>Costume_Costu05</t>
-  </si>
-  <si>
-    <t>Costume_Costu07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costume_Costu02</t>
-  </si>
-  <si>
-    <t>Costume_Costu01</t>
-  </si>
-  <si>
-    <t>Costume_Costu03</t>
-  </si>
-  <si>
-    <t>Costume_Costu06</t>
-  </si>
-  <si>
-    <t>Costume_Costu07</t>
-  </si>
-  <si>
-    <t>Costume_Costu08</t>
+    <t>Costume_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_02</t>
+  </si>
+  <si>
+    <t>Costume_03</t>
+  </si>
+  <si>
+    <t>Costume_04</t>
+  </si>
+  <si>
+    <t>Costume_05</t>
+  </si>
+  <si>
+    <t>Costume_06</t>
+  </si>
+  <si>
+    <t>Costume_07</t>
+  </si>
+  <si>
+    <t>Costume_08</t>
+  </si>
+  <si>
+    <t>costume_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume_03</t>
+  </si>
+  <si>
+    <t>costume_04</t>
+  </si>
+  <si>
+    <t>costume_05</t>
+  </si>
+  <si>
+    <t>costume_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -809,7 +815,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -832,7 +838,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>257</v>
@@ -853,7 +859,7 @@
         <v>9900</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>358</v>
@@ -882,7 +888,7 @@
         <v>39000</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -890,7 +896,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>485</v>
@@ -911,7 +917,7 @@
         <v>49000</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -919,7 +925,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>541</v>
@@ -940,7 +946,7 @@
         <v>19000</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>674</v>
@@ -968,7 +974,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>815</v>
@@ -989,7 +995,7 @@
         <v>49000</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -997,7 +1003,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9">
         <v>998</v>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB83F45-77B5-4CA7-B869-A6934CCBBDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA1DCC-8079-4326-91F6-D97AAC0EF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,46 +314,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Costume_02</t>
+  </si>
+  <si>
+    <t>Costume_03</t>
+  </si>
+  <si>
+    <t>Costume_04</t>
+  </si>
+  <si>
+    <t>Costume_05</t>
+  </si>
+  <si>
+    <t>Costume_06</t>
+  </si>
+  <si>
+    <t>Costume_07</t>
+  </si>
+  <si>
+    <t>Costume_08</t>
+  </si>
+  <si>
+    <t>costume_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costume_03</t>
+  </si>
+  <si>
+    <t>costume_04</t>
+  </si>
+  <si>
+    <t>costume_05</t>
+  </si>
+  <si>
+    <t>costume_07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costume_00</t>
+  </si>
+  <si>
     <t>Costume_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Costume_02</t>
-  </si>
-  <si>
-    <t>Costume_03</t>
-  </si>
-  <si>
-    <t>Costume_04</t>
-  </si>
-  <si>
-    <t>Costume_05</t>
-  </si>
-  <si>
-    <t>Costume_06</t>
-  </si>
-  <si>
-    <t>Costume_07</t>
-  </si>
-  <si>
-    <t>Costume_08</t>
-  </si>
-  <si>
-    <t>costume_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>costume_03</t>
-  </si>
-  <si>
-    <t>costume_04</t>
-  </si>
-  <si>
-    <t>costume_05</t>
-  </si>
-  <si>
-    <t>costume_07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -815,209 +817,226 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>1000000</v>
-      </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B3">
-        <v>257</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>7.99</v>
-      </c>
-      <c r="G3">
-        <v>9900</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
+      <c r="I3">
+        <v>990000</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
-        <v>358</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.99</v>
+        <v>7.99</v>
       </c>
       <c r="G4">
-        <v>39000</v>
+        <v>9900</v>
       </c>
       <c r="H4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>485</v>
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="G5">
-        <v>49000</v>
+        <v>39000</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
-        <v>541</v>
+        <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.99</v>
+        <v>39.99</v>
       </c>
       <c r="G6">
-        <v>19000</v>
+        <v>49000</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>674</v>
+        <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>14.99</v>
+      </c>
+      <c r="G7">
+        <v>19000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
-        <v>815</v>
+        <v>674</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>39.99</v>
-      </c>
-      <c r="G8">
-        <v>49000</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9">
+        <v>815</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>39.99</v>
+      </c>
+      <c r="G9">
+        <v>49000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
         <v>998</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="b">
+      <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>8</v>
       </c>
     </row>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BA1DCC-8079-4326-91F6-D97AAC0EF604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804F226-3FDE-485F-BAAC-577749790959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,10 @@
   </si>
   <si>
     <t>Costume_01</t>
+  </si>
+  <si>
+    <t>Portrait_P03_Tenebro_DB_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -770,7 +774,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -823,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0804F226-3FDE-485F-BAAC-577749790959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A758B-03BC-476A-8BD1-306F63322809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
@@ -254,9 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EarthMage</t>
-  </si>
-  <si>
     <t>orderIndex|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,27 +261,6 @@
     <t>Portrait_P03_Tenebro_DB_A3</t>
   </si>
   <si>
-    <t>BigBatSuccubus</t>
-  </si>
-  <si>
-    <t>Bei</t>
-  </si>
-  <si>
-    <t>Meryl</t>
-  </si>
-  <si>
-    <t>Akai</t>
-  </si>
-  <si>
-    <t>Yuka</t>
-  </si>
-  <si>
-    <t>Kachujin</t>
-  </si>
-  <si>
-    <t>Medea</t>
-  </si>
-  <si>
     <t>Portrait_P03_Tenebro_DB_A1</t>
   </si>
   <si>
@@ -360,6 +336,30 @@
   <si>
     <t>Portrait_P03_Tenebro_DB_B</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_A3</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_A1</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_C1</t>
+  </si>
+  <si>
+    <t>P03_Tenebro_DB_C2</t>
+  </si>
+  <si>
+    <t>P06_Mei</t>
+  </si>
+  <si>
+    <t>P06_Pai</t>
+  </si>
+  <si>
+    <t>P08_Federica_DB_A</t>
+  </si>
+  <si>
+    <t>P08_Federica_DB_B</t>
   </si>
 </sst>
 </file>
@@ -774,7 +774,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -816,18 +816,18 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -838,16 +838,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -861,16 +861,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>9900</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -890,16 +890,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>39000</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -919,16 +919,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>485</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>49000</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J6">
         <v>4</v>
@@ -948,16 +948,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>541</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>19000</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -977,16 +977,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>674</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -997,16 +997,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>815</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>49000</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J9">
         <v>7</v>
@@ -1026,16 +1026,16 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>998</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47A758B-03BC-476A-8BD1-306F63322809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C4023-4EC5-4353-B678-5676EE790AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,82 @@
   </si>
   <si>
     <t>P08_Federica_DB_B</t>
+  </si>
+  <si>
+    <t>티어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달러</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>1Tier</t>
+  </si>
+  <si>
+    <t>2Tier</t>
+  </si>
+  <si>
+    <t>3Tier</t>
+  </si>
+  <si>
+    <t>4Tier</t>
+  </si>
+  <si>
+    <t>5Tier</t>
+  </si>
+  <si>
+    <t>6Tier</t>
+  </si>
+  <si>
+    <t>7Tier</t>
+  </si>
+  <si>
+    <t>8Tier</t>
+  </si>
+  <si>
+    <t>9Tier</t>
+  </si>
+  <si>
+    <t>10Tier</t>
+  </si>
+  <si>
+    <t>12Tier</t>
+  </si>
+  <si>
+    <t>19Tier</t>
+  </si>
+  <si>
+    <t>20Tier</t>
+  </si>
+  <si>
+    <t>30Tier</t>
+  </si>
+  <si>
+    <t>50Tier</t>
+  </si>
+  <si>
+    <t>53Tier</t>
+  </si>
+  <si>
+    <t>56Tier</t>
+  </si>
+  <si>
+    <t>60Tier</t>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -768,26 +844,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="13" max="17" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
+    <row r="1" spans="1:17" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,23 +881,41 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -832,11 +928,35 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" t="str">
+        <f>IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2">
+        <v>0.99</v>
+      </c>
+      <c r="P2">
+        <v>1100</v>
+      </c>
+      <c r="Q2">
+        <f>COUNTIF(F:F,N2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -852,14 +972,38 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G10" si="0">IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H10" si="1">IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <v/>
+      </c>
+      <c r="J3">
         <v>990000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>1.99</v>
+      </c>
+      <c r="P3">
+        <v>3000</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q19" si="2">COUNTIF(F:F,N3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -875,20 +1019,41 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>7.99</v>
+      <c r="F4" t="s">
+        <v>50</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <v>2.99</v>
+      </c>
+      <c r="P4">
+        <v>4400</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -904,20 +1069,41 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>29.99</v>
+      <c r="F5" t="s">
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>39000</v>
-      </c>
-      <c r="H5" t="s">
+        <f t="shared" si="0"/>
+        <v>19.989999999999998</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>3.99</v>
+      </c>
+      <c r="P5">
+        <v>6000</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -933,20 +1119,41 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>39.99</v>
+      <c r="F6" t="s">
+        <v>57</v>
       </c>
       <c r="G6">
-        <v>49000</v>
-      </c>
-      <c r="H6" t="s">
+        <f t="shared" si="0"/>
+        <v>29.99</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="I6" t="s">
         <v>27</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6">
+        <v>4.99</v>
+      </c>
+      <c r="P6">
+        <v>7500</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -962,20 +1169,41 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>14.99</v>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
       <c r="G7">
+        <f t="shared" si="0"/>
+        <v>11.99</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7">
+        <v>5.99</v>
+      </c>
+      <c r="P7">
+        <v>8800</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -991,11 +1219,35 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8">
+        <v>6.99</v>
+      </c>
+      <c r="P8">
+        <v>9900</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1011,20 +1263,41 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>39.99</v>
+      <c r="F9" t="s">
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>49000</v>
-      </c>
-      <c r="H9" t="s">
+        <f t="shared" si="0"/>
+        <v>29.99</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9">
+        <v>7.99</v>
+      </c>
+      <c r="P9">
+        <v>12000</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1040,12 +1313,203 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K10">
         <v>8</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10">
+        <v>8.99</v>
+      </c>
+      <c r="P10">
+        <v>14000</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11">
+        <v>9.99</v>
+      </c>
+      <c r="P11">
+        <v>15000</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12">
+        <v>11.99</v>
+      </c>
+      <c r="P12">
+        <v>19000</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="P13">
+        <v>29000</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O14">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="P14">
+        <v>30000</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15">
+        <v>29.99</v>
+      </c>
+      <c r="P15">
+        <v>45000</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16">
+        <v>49.99</v>
+      </c>
+      <c r="P16">
+        <v>79000</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="13:17">
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="P17">
+        <v>99000</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="13:17">
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="P18">
+        <v>119000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19">
+        <v>99.99</v>
+      </c>
+      <c r="P19">
+        <v>149000</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10" xr:uid="{D8E22A50-2A5D-49D7-8391-825FECADB231}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C4023-4EC5-4353-B678-5676EE790AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F20C3-113D-4599-B943-2F78E3AE14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,12 +402,6 @@
     <t>10Tier</t>
   </si>
   <si>
-    <t>12Tier</t>
-  </si>
-  <si>
-    <t>19Tier</t>
-  </si>
-  <si>
     <t>20Tier</t>
   </si>
   <si>
@@ -417,15 +411,6 @@
     <t>50Tier</t>
   </si>
   <si>
-    <t>53Tier</t>
-  </si>
-  <si>
-    <t>56Tier</t>
-  </si>
-  <si>
-    <t>60Tier</t>
-  </si>
-  <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +421,22 @@
   <si>
     <t>티어_Verify</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13Tier</t>
+  </si>
+  <si>
+    <t>13Tier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70Tier</t>
+  </si>
+  <si>
+    <t>80Tier</t>
+  </si>
+  <si>
+    <t>100Tier</t>
   </si>
 </sst>
 </file>
@@ -844,13 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -900,10 +901,10 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="O1" t="s">
         <v>42</v>
@@ -912,7 +913,7 @@
         <v>43</v>
       </c>
       <c r="Q1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -973,11 +974,11 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G10" si="0">IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f>IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H10" si="1">IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f>IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="J3">
@@ -996,10 +997,10 @@
         <v>1.99</v>
       </c>
       <c r="P3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q19" si="2">COUNTIF(F:F,N3)</f>
+        <f t="shared" ref="Q3:Q18" si="0">COUNTIF(F:F,N3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1023,11 +1024,11 @@
         <v>50</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F4),"",VLOOKUP($F4,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v>6.99</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($F4),"",VLOOKUP($F4,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v>9900</v>
       </c>
       <c r="I4" t="s">
@@ -1049,7 +1050,7 @@
         <v>4400</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1070,15 +1071,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F5),"",VLOOKUP($F5,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v>19.989999999999998</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>30000</v>
+        <f>IF(ISBLANK($F5),"",VLOOKUP($F5,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <v>29000</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1096,10 +1097,10 @@
         <v>3.99</v>
       </c>
       <c r="P5">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1120,15 +1121,15 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F6),"",VLOOKUP($F6,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v>29.99</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
-        <v>45000</v>
+        <f>IF(ISBLANK($F6),"",VLOOKUP($F6,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <v>44000</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -1146,10 +1147,10 @@
         <v>4.99</v>
       </c>
       <c r="P6">
-        <v>7500</v>
+        <v>6600</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1170,14 +1171,14 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>11.99</v>
+        <f>IF(ISBLANK($F7),"",VLOOKUP($F7,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <v>12.99</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($F7),"",VLOOKUP($F7,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v>19000</v>
       </c>
       <c r="I7" t="s">
@@ -1199,7 +1200,7 @@
         <v>8800</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1220,11 +1221,11 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F8),"",VLOOKUP($F8,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($F8),"",VLOOKUP($F8,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="K8">
@@ -1243,7 +1244,7 @@
         <v>9900</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1264,15 +1265,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F9),"",VLOOKUP($F9,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v>29.99</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>45000</v>
+        <f>IF(ISBLANK($F9),"",VLOOKUP($F9,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <v>44000</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -1290,10 +1291,10 @@
         <v>7.99</v>
       </c>
       <c r="P9">
-        <v>12000</v>
+        <v>11000</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1314,11 +1315,11 @@
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($F10),"",VLOOKUP($F10,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($F10),"",VLOOKUP($F10,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="K10">
@@ -1334,10 +1335,10 @@
         <v>8.99</v>
       </c>
       <c r="P10">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1352,10 +1353,10 @@
         <v>9.99</v>
       </c>
       <c r="P11">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1364,16 +1365,16 @@
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="O12">
-        <v>11.99</v>
+        <v>12.99</v>
       </c>
       <c r="P12">
         <v>19000</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1382,17 +1383,17 @@
         <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13">
-        <v>18.989999999999998</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="P13">
         <v>29000</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1400,17 +1401,17 @@
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O14">
-        <v>19.989999999999998</v>
+        <v>29.99</v>
       </c>
       <c r="P14">
-        <v>30000</v>
+        <v>44000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,17 +1419,17 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O15">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="P15">
-        <v>45000</v>
+        <v>66000</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1436,16 +1437,16 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O16">
-        <v>49.99</v>
+        <v>69.989999999999995</v>
       </c>
       <c r="P16">
-        <v>79000</v>
+        <v>99000</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1454,16 +1455,16 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O17">
-        <v>64.989999999999995</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="P17">
-        <v>99000</v>
+        <v>110000</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1472,34 +1473,16 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="O18">
-        <v>79.989999999999995</v>
+        <v>99.99</v>
       </c>
       <c r="P18">
-        <v>119000</v>
+        <v>149000</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="13:17">
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>61</v>
-      </c>
-      <c r="O19">
-        <v>99.99</v>
-      </c>
-      <c r="P19">
-        <v>149000</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813F20C3-113D-4599-B943-2F78E3AE14C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB23CF8-6B87-4EB0-B317-BE7AE24FB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -845,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -860,10 +860,12 @@
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" collapsed="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="13" max="17" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1">
@@ -930,11 +932,11 @@
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <f>IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" ref="G2:G10" si="0">IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f>IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" ref="H2:H10" si="1">IF(ISBLANK($F2),"",VLOOKUP($F2,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
         <v/>
       </c>
       <c r="K2">
@@ -962,7 +964,7 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
@@ -974,11 +976,11 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <f>IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f>IF(ISBLANK($F3),"",VLOOKUP($F3,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J3">
@@ -1000,7 +1002,7 @@
         <v>3300</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="0">COUNTIF(F:F,N3)</f>
+        <f t="shared" ref="Q3:Q18" si="2">COUNTIF(F:F,N3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1009,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>257</v>
+        <v>799</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -1024,11 +1026,11 @@
         <v>50</v>
       </c>
       <c r="G4">
-        <f>IF(ISBLANK($F4),"",VLOOKUP($F4,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v>6.99</v>
       </c>
       <c r="H4">
-        <f>IF(ISBLANK($F4),"",VLOOKUP($F4,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="I4" t="s">
@@ -1050,7 +1052,7 @@
         <v>4400</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1059,7 +1061,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>358</v>
+        <v>929</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
@@ -1074,11 +1076,11 @@
         <v>54</v>
       </c>
       <c r="G5">
-        <f>IF(ISBLANK($F5),"",VLOOKUP($F5,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v>19.989999999999998</v>
       </c>
       <c r="H5">
-        <f>IF(ISBLANK($F5),"",VLOOKUP($F5,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v>29000</v>
       </c>
       <c r="I5" t="s">
@@ -1100,7 +1102,7 @@
         <v>5500</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1109,7 +1111,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>485</v>
+        <v>959</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1124,11 +1126,11 @@
         <v>55</v>
       </c>
       <c r="G6">
-        <f>IF(ISBLANK($F6),"",VLOOKUP($F6,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="H6">
-        <f>IF(ISBLANK($F6),"",VLOOKUP($F6,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="I6" t="s">
@@ -1150,7 +1152,7 @@
         <v>6600</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1159,7 +1161,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>541</v>
+        <v>888</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
@@ -1174,11 +1176,11 @@
         <v>61</v>
       </c>
       <c r="G7">
-        <f>IF(ISBLANK($F7),"",VLOOKUP($F7,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v>12.99</v>
       </c>
       <c r="H7">
-        <f>IF(ISBLANK($F7),"",VLOOKUP($F7,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v>19000</v>
       </c>
       <c r="I7" t="s">
@@ -1200,7 +1202,7 @@
         <v>8800</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1209,7 +1211,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>674</v>
+        <v>939</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -1221,11 +1223,11 @@
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(ISBLANK($F8),"",VLOOKUP($F8,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f>IF(ISBLANK($F8),"",VLOOKUP($F8,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8">
@@ -1244,7 +1246,7 @@
         <v>9900</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1253,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>815</v>
+        <v>979</v>
       </c>
       <c r="C9" t="s">
         <v>39</v>
@@ -1268,11 +1270,11 @@
         <v>55</v>
       </c>
       <c r="G9">
-        <f>IF(ISBLANK($F9),"",VLOOKUP($F9,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v>29.99</v>
       </c>
       <c r="H9">
-        <f>IF(ISBLANK($F9),"",VLOOKUP($F9,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v>44000</v>
       </c>
       <c r="I9" t="s">
@@ -1294,7 +1296,7 @@
         <v>11000</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1303,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
@@ -1315,11 +1317,11 @@
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(ISBLANK($F10),"",VLOOKUP($F10,$N:$P,MATCH($O$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f>IF(ISBLANK($F10),"",VLOOKUP($F10,$N:$P,MATCH($P$1,$N$1:$P$1,0),0))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K10">
@@ -1338,7 +1340,7 @@
         <v>12000</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1356,7 +1358,7 @@
         <v>14000</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1376,7 @@
         <v>19000</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1392,7 +1394,7 @@
         <v>29000</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1410,7 +1412,7 @@
         <v>44000</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -1428,7 +1430,7 @@
         <v>66000</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1446,7 +1448,7 @@
         <v>99000</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1466,7 @@
         <v>110000</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1482,7 +1484,7 @@
         <v>149000</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/Excel/작업Costume.xlsx
+++ b/Excel/작업Costume.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB23CF8-6B87-4EB0-B317-BE7AE24FB0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA77746D-7BEE-43A1-8568-EDEBD423E515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12B46260-A33A-4884-82BA-34172A8E63DC}"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeTable" sheetId="1" r:id="rId1"/>
@@ -224,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>costumeId|String</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,10 +426,6 @@
     <t>13Tier</t>
   </si>
   <si>
-    <t>13Tier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>70Tier</t>
   </si>
   <si>
@@ -437,6 +433,15 @@
   </si>
   <si>
     <t>100Tier</t>
+  </si>
+  <si>
+    <t>18Tier</t>
+  </si>
+  <si>
+    <t>35Tier</t>
+  </si>
+  <si>
+    <t>40Tier</t>
   </si>
 </sst>
 </file>
@@ -845,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A71914D-880D-4561-A75B-504B8E28EC39}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -860,12 +865,10 @@
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="28.375" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" collapsed="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="13" max="17" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="9" collapsed="1"/>
+    <col min="13" max="17" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="27" customHeight="1">
@@ -1002,8 +1005,8 @@
         <v>3300</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q18" si="2">COUNTIF(F:F,N3)</f>
-        <v>0</v>
+        <f t="shared" ref="Q3:Q21" si="2">COUNTIF(F:F,N3)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1023,15 +1026,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>6.99</v>
+        <v>1.99</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>9900</v>
+        <v>3300</v>
       </c>
       <c r="I4" t="s">
         <v>25</v>
@@ -1073,15 +1076,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>19.989999999999998</v>
+        <v>4.99</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>29000</v>
+        <v>6600</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -1103,7 +1106,7 @@
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1123,15 +1126,15 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>9.99</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>14000</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1173,15 +1176,15 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>12.99</v>
+        <v>3.99</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>19000</v>
+        <v>5500</v>
       </c>
       <c r="I7" t="s">
         <v>28</v>
@@ -1247,7 +1250,7 @@
       </c>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1267,15 +1270,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>44000</v>
+        <v>29000</v>
       </c>
       <c r="I9" t="s">
         <v>29</v>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1377,7 +1380,7 @@
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1385,17 +1388,17 @@
         <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="O13">
-        <v>19.989999999999998</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="P13">
-        <v>29000</v>
+        <v>25000</v>
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1403,17 +1406,17 @@
         <v>13</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O14">
-        <v>29.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="P14">
-        <v>44000</v>
+        <v>29000</v>
       </c>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1424,13 @@
         <v>14</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O15">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="P15">
-        <v>66000</v>
+        <v>44000</v>
       </c>
       <c r="Q15">
         <f t="shared" si="2"/>
@@ -1439,13 +1442,13 @@
         <v>15</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O16">
-        <v>69.989999999999995</v>
+        <v>34.99</v>
       </c>
       <c r="P16">
-        <v>99000</v>
+        <v>49000</v>
       </c>
       <c r="Q16">
         <f t="shared" si="2"/>
@@ -1457,13 +1460,13 @@
         <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O17">
-        <v>79.989999999999995</v>
+        <v>49.99</v>
       </c>
       <c r="P17">
-        <v>110000</v>
+        <v>55000</v>
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
@@ -1475,15 +1478,69 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O18">
+        <v>49.99</v>
+      </c>
+      <c r="P18">
+        <v>66000</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="13:17">
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="P19">
+        <v>99000</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="13:17">
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="P20">
+        <v>110000</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="13:17">
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21">
         <v>99.99</v>
       </c>
-      <c r="P18">
+      <c r="P21">
         <v>149000</v>
       </c>
-      <c r="Q18">
+      <c r="Q21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
